--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R50_Pentropia_I0.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R50_Pentropia_I0.xlsx
@@ -623,7 +623,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[156, 66, 82, 152, 128, 138, 68]</t>
+          <t>[156, 66, 82, 11, 152, 128, 138]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[4.478317098463994, 5.454211732785777, 5.49940036322658, 5.5594009029342875, 5.5662296606830735, 5.627327209375208, 5.628090492192896]</t>
+          <t>[4.530751450103734, 5.589210298066194, 5.662169015133127, 5.717355281357399, 5.726460666711151, 5.732853869671105, 5.796750786363386]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -643,14 +643,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[6.331607899158457, 6.678864271962986, 6.7608539015845155, 6.860949208289157, 6.997789979562751, 7.1619456496723695, 7.195490460867337]</t>
+          <t>[6.36327111680248, 6.822377952050875, 6.864111378779393, 6.931556841291142, 7.0708306540255235, 7.230607943791804, 7.259748537006214]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>5.59677843502914</v>
+        <v>5.729657268191128</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.046675</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[46, 150, 120, 32, 130, 137, 142]</t>
+          <t>[46, 150, 120, 32, 137, 142, 130]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -721,24 +721,24 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.8739505700342962, 1.6350831755880542, 1.7011545797746552, 1.7530826184277317, 1.783394109250622, 1.7944468123309107, 1.8145693459789385]</t>
+          <t>[0.8828062361989452, 1.6305311711758932, 1.6989698441855032, 1.7421352832904458, 1.7940272161745936, 1.8111908052999006, 1.8321746720852154]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[98, 38, 14, 112, 165, 148, 105]</t>
+          <t>[98, 38, 112, 14, 165, 148, 127]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[3.6010893792240823, 3.821598905725455, 4.028151934337091, 4.089842249068444, 4.345600444083346, 4.536327881320747, 4.540213781421512]</t>
+          <t>[3.635285802937443, 3.862175758633974, 4.127226302729013, 4.167315718794275, 4.464518828849, 4.6499832410991555, 4.651686589816159]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.788920460790766</v>
+        <v>1.802609010737247</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.047675</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[0.611375611061816, 0.6782598467668859, 1.194743737695028, 1.3014210981117382, 1.3271165301696246, 1.3928555100109705, 1.4711694099462458]</t>
+          <t>[0.5879933532969523, 0.6479369398539214, 1.1796822928906947, 1.2958760098901931, 1.3075752701045225, 1.3769120491736737, 1.45252981020603]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -819,14 +819,14 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[0.611375611061816, 0.6782598467668859, 1.194743737695028, 1.3014210981117382, 1.3271165301696246, 1.3928555100109705, 1.4711694099462458]</t>
+          <t>[0.5879933532969523, 0.6479369398539214, 1.1796822928906947, 1.2958760098901931, 1.3075752701045225, 1.3769120491736737, 1.45252981020603]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.359986020090298</v>
+        <v>1.342243659639098</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.047675</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[1.3737744115702983, 1.6013097648861296, 1.6079455034365908, 1.630962333209065, 1.6745758293970083, 1.8254394481804908, 1.8977050322615434]</t>
+          <t>[1.368819719094989, 1.5960245837452323, 1.6049634121664604, 1.6262269216903116, 1.6385996902796947, 1.8197731595471096, 1.8945169435226545]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -907,14 +907,14 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[1.3737744115702983, 1.6013097648861296, 1.6079455034365908, 1.630962333209065, 1.6745758293970083, 1.8254394481804908, 1.8977050322615434]</t>
+          <t>[1.368819719094989, 1.5960245837452323, 1.6049634121664604, 1.6262269216903116, 1.6385996902796947, 1.8197731595471096, 1.8945169435226545]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75000763878875</v>
+        <v>1.729186424913402</v>
       </c>
       <c r="W5" t="n">
         <v>4</v>
@@ -927,7 +927,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.047675</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.5837480185598442, 1.054473709722081, 1.1314007937194839, 1.1750377863677839, 1.2149870706925952, 1.3271165301696246, 1.3305725785527296]</t>
+          <t>[0.5819122020344504, 0.9845952351081793, 1.1295189922710591, 1.177580833546099, 1.2131549535659734, 1.3075752701045225, 1.3293392176930758]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -999,14 +999,14 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[0.5837480185598442, 1.054473709722081, 1.1314007937194839, 1.1750377863677839, 1.2149870706925952, 1.3271165301696246, 1.3305725785527296]</t>
+          <t>[0.5819122020344504, 0.9845952351081793, 1.1295189922710591, 1.177580833546099, 1.2131549535659734, 1.3075752701045225, 1.3293392176930758]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27105180043111</v>
+        <v>1.260365111835248</v>
       </c>
       <c r="W6" t="n">
         <v>4</v>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.047675</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[67, 116, 28, 88, 166, 12, 146]</t>
+          <t>[67, 116, 88, 28, 166, 12, 92]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1081,24 +1081,24 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.581989882899281, 0.8253927675005184, 1.1750377863677839, 1.179214023484935, 1.3093025389628286, 1.3928555100109705, 1.664562814077198]</t>
+          <t>[0.582537186088008, 0.8301415595463338, 1.1222222077853814, 1.177580833546099, 1.3159972366468766, 1.3769120491736737, 1.6334446950219284]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[67, 116, 28, 88, 166, 12, 146]</t>
+          <t>[67, 116, 88, 28, 166, 12, 92]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[0.581989882899281, 0.8253927675005184, 1.1750377863677839, 1.179214023484935, 1.3093025389628286, 1.3928555100109705, 1.664562814077198]</t>
+          <t>[0.582537186088008, 0.8301415595463338, 1.1222222077853814, 1.177580833546099, 1.3159972366468766, 1.3769120491736737, 1.6334446950219284]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3510790244869</v>
+        <v>1.346454642910275</v>
       </c>
       <c r="W7" t="n">
         <v>3</v>
@@ -1107,11 +1107,11 @@
         <v>0.4090454577821077</v>
       </c>
       <c r="Y7" t="n">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.047675</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[112, 72, 137, 27, 89, 161, 120]</t>
+          <t>[112, 72, 27, 137, 89, 120, 161]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1173,24 +1173,24 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[3.07168206863746, 3.215122663261161, 3.3849300123747303, 3.4104924524290867, 3.4887995700345362, 3.5339871874037456, 3.5412520730204573]</t>
+          <t>[3.076781574816323, 3.235239954399619, 3.355638818099723, 3.4244304634122273, 3.4382143891279515, 3.577097201355148, 3.585201948787442]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[112, 8, 134, 98, 28, 165, 127]</t>
+          <t>[112, 8, 134, 98, 165, 28, 127]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[3.07168206863746, 3.821598905725455, 4.880293029447384, 4.9122762473878545, 4.91246411103075, 4.914982992876313, 5.026304566073297]</t>
+          <t>[3.076781574816323, 3.862175758633974, 4.955566383943055, 4.955909366280068, 5.003593469026952, 5.008714746092706, 5.102860406264765]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>3.511393378719141</v>
+        <v>3.50765579524155</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.047675</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.581989882899281, 0.664148875677366, 1.186877954088361, 1.2149870706925952, 1.410532762641785, 1.4442615180261902, 1.5556123608155776]</t>
+          <t>[0.582537186088008, 0.6646991968904844, 1.1264354869430147, 1.2131549535659734, 1.4123670890397437, 1.4459942765403733, 1.5514633331738192]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1271,14 +1271,14 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.581989882899281, 0.664148875677366, 1.186877954088361, 1.2149870706925952, 1.410532762641785, 1.4442615180261902, 1.5556123608155776]</t>
+          <t>[0.582537186088008, 0.6646991968904844, 1.1264354869430147, 1.2131549535659734, 1.4123670890397437, 1.4459942765403733, 1.5514633331738192]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.427397140333988</v>
+        <v>1.429180682790058</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.047675</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.9444613398267706, 1.054473709722081, 1.179214023484935, 1.186877954088361, 1.194743737695028, 1.2572633924295364, 1.3130721379264942]</t>
+          <t>[0.866745184854224, 0.9845952351081793, 1.1222222077853814, 1.1264354869430147, 1.1796822928906947, 1.2549223035547126, 1.2574633640832154]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1363,14 +1363,14 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.9444613398267706, 1.054473709722081, 1.179214023484935, 1.186877954088361, 1.194743737695028, 1.2572633924295364, 1.3130721379264942]</t>
+          <t>[0.866745184854224, 0.9845952351081793, 1.1222222077853814, 1.1264354869430147, 1.1796822928906947, 1.2549223035547126, 1.2574633640832154]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.226003565062282</v>
+        <v>1.217302298222704</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.047675</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[12, 166, 88, 134, 28, 34, 116]</t>
+          <t>[12, 166, 88, 28, 134, 34, 116]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1441,24 +1441,24 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.611375611061816, 1.1471118310953297, 1.2572633924295364, 1.5585315348563724, 1.5627094241319928, 1.6769033716181836, 1.766223350785298]</t>
+          <t>[0.5879933532969523, 1.0863029114178249, 1.2549223035547126, 1.5156996184129194, 1.524410142595587, 1.6334446950219284, 1.7234560426622165]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[12, 166, 88, 134, 28, 34, 116]</t>
+          <t>[12, 166, 88, 28, 134, 34, 116]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.611375611061816, 1.1471118310953297, 1.2572633924295364, 1.5585315348563724, 1.5627094241319928, 1.6769033716181836, 1.766223350785298]</t>
+          <t>[0.5879933532969523, 1.0863029114178249, 1.2549223035547126, 1.5156996184129194, 1.524410142595587, 1.6334446950219284, 1.7234560426622165]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.619806397875088</v>
+        <v>1.578927418808758</v>
       </c>
       <c r="W11" t="n">
         <v>3</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.047675</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -1523,34 +1523,34 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[146, 105, 170, 148, 165, 125, 149]</t>
+          <t>[170, 146, 105, 148, 165, 125, 149]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 1, 0]</t>
+          <t>[0, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[1.7225801422355707, 1.7577446292598147, 1.7577835271572868, 1.7899392638629419, 1.9100025299440844, 1.9437320198044221, 2.0033693740184866]</t>
+          <t>[1.7679860763506547, 1.8102258000893334, 1.8415466208759352, 1.8665319420443913, 1.9816496148304037, 2.0147034389313068, 2.0174946371849116]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[146, 105, 148, 165, 125, 116, 127]</t>
+          <t>[146, 105, 148, 165, 125, 127, 116]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[1.7225801422355707, 1.7577446292598147, 1.7899392638629419, 1.9100025299440844, 1.9437320198044221, 2.014552284420192, 2.0215788560382304]</t>
+          <t>[1.8102258000893334, 1.8415466208759352, 1.8665319420443913, 1.9816496148304037, 2.0147034389313068, 2.0644894772821005, 2.083297815635858]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.926867274874253</v>
+        <v>1.998176526880855</v>
       </c>
       <c r="W12" t="n">
         <v>3</v>
@@ -1559,11 +1559,11 @@
         <v>0.5122486851695403</v>
       </c>
       <c r="Y12" t="n">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.047675</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.5551619343441846, 0.9040096290616884, 1.035457601154715, 1.0900452528806108, 1.1187500154090464, 1.3305725785527296, 1.3737744115702983]</t>
+          <t>[0.5572617542010159, 0.9014988771908206, 1.032027483842025, 1.038074765013218, 1.1172569409620023, 1.3293392176930758, 1.368819719094989]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1635,14 +1635,14 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[0.5551619343441846, 0.9040096290616884, 1.035457601154715, 1.0900452528806108, 1.1187500154090464, 1.3305725785527296, 1.3737744115702983]</t>
+          <t>[0.5572617542010159, 0.9014988771908206, 1.032027483842025, 1.038074765013218, 1.1172569409620023, 1.3293392176930758, 1.368819719094989]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.224661296980888</v>
+        <v>1.223298079327539</v>
       </c>
       <c r="W13" t="n">
         <v>3</v>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.048674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -1717,24 +1717,24 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[3.07168206863746, 3.192792120101138, 3.519818697112672, 3.5336649093846515, 3.7658034223685304, 3.8103041780488827, 3.910788019309556]</t>
+          <t>[3.076781574816323, 3.2538269889820506, 3.580883424587943, 3.587310499431581, 3.8029783036198124, 3.8229773292079248, 3.955579928084151]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[38, 8, 165, 14, 125, 127, 148]</t>
+          <t>[38, 8, 165, 14, 127, 125, 148]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[3.07168206863746, 4.089842249068444, 4.454199667814682, 4.6901720654379675, 4.747318301149282, 4.7561153025720575, 4.793384315815374]</t>
+          <t>[3.076781574816323, 4.127226302729013, 4.52028247799591, 4.766033883806066, 4.806364728098596, 4.810438704885107, 4.8566494698044]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>3.788053800208707</v>
+        <v>3.812977816413869</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.048674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[3.4252480950459265, 3.894163497288644, 3.980378544542978, 3.99281616510295, 4.011352967729578, 4.014453762668505, 4.016399926129055]</t>
+          <t>[3.5879615937399656, 3.9300468606560144, 4.017482972706229, 4.028415944498399, 4.0332377000026955, 4.051914876406718, 4.055090380243033]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1815,14 +1815,14 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[3.4252480950459265, 3.894163497288644, 3.980378544542978, 3.99281616510295, 4.011352967729578, 4.014453762668505, 4.016399926129055]</t>
+          <t>[3.5879615937399656, 3.9300468606560144, 4.017482972706229, 4.028415944498399, 4.0332377000026955, 4.051914876406718, 4.055090380243033]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>4.012903365199041</v>
+        <v>4.042576288204707</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.048674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.5837480185598442, 0.664148875677366, 0.8253927675005184, 0.9444613398267706, 1.1828624393241531, 1.2265918177176114, 1.2320209371970219]</t>
+          <t>[0.5819122020344504, 0.6646991968904844, 0.8301415595463338, 0.866745184854224, 1.1835711376386544, 1.2249459627477546, 1.233186890316329]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1903,14 +1903,14 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[0.5837480185598442, 0.664148875677366, 0.8253927675005184, 0.9444613398267706, 1.1828624393241531, 1.2265918177176114, 1.2320209371970219]</t>
+          <t>[0.5819122020344504, 0.6646991968904844, 0.8301415595463338, 0.866745184854224, 1.1835711376386544, 1.2249459627477546, 1.233186890316329]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.204727128520882</v>
+        <v>1.204258550193205</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.048674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -1985,24 +1985,24 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[3.4252480950459265, 3.689704089322218, 4.014510504255736, 4.124757763380227, 4.141503331300873, 4.152511805635318, 4.170870690671313]</t>
+          <t>[3.5879615937399656, 3.7052715193585795, 4.038238653567807, 4.145531382181378, 4.161206517842106, 4.174435853338906, 4.1925265447626625]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[114, 98, 112, 8, 125, 38, 127]</t>
+          <t>[114, 8, 112, 38, 98, 125, 127]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[3.4252480950459265, 5.2365151539331425, 5.245518377722082, 5.255223161333028, 5.261791730812198, 5.267291116449917, 5.342492303392607]</t>
+          <t>[3.5879615937399656, 5.272158421365202, 5.281636525299304, 5.295064562325097, 5.3028907684434685, 5.401198918003371, 5.469859071271686]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>4.147007568468095</v>
+        <v>4.167821185590507</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.048674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.4792325955141297, 0.5283817081444638, 0.8446208314777288, 0.9040096290616884, 0.9206749711648871, 1.2320209371970219, 1.4151509790309238]</t>
+          <t>[0.4796404269311558, 0.5286214344194159, 0.7757655031544023, 0.9014988771908206, 0.9255624855016816, 1.233186890316329, 1.4162475523984508]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2083,14 +2083,14 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[0.4792325955141297, 0.5283817081444638, 0.8446208314777288, 0.9040096290616884, 0.9206749711648871, 1.2320209371970219, 1.4151509790309238]</t>
+          <t>[0.4796404269311558, 0.5286214344194159, 0.7757655031544023, 0.9014988771908206, 0.9255624855016816, 1.233186890316329, 1.4162475523984508]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.076347954180954</v>
+        <v>1.079374687909005</v>
       </c>
       <c r="W18" t="n">
         <v>3</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.048674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.8446208314777288, 0.9523154693433444, 0.9633765679682139, 1.0900452528806108, 1.1937109588816617, 1.4254426591577092, 1.4892273180502313]</t>
+          <t>[0.7757655031544023, 0.8916994079630218, 0.9034636903446825, 1.038074765013218, 1.1522491794721168, 1.425511320208974, 1.452182999004488]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2175,14 +2175,14 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[0.8446208314777288, 0.9523154693433444, 0.9633765679682139, 1.0900452528806108, 1.1937109588816617, 1.4254426591577092, 1.4892273180502313]</t>
+          <t>[0.7757655031544023, 0.8916994079630218, 0.9034636903446825, 1.038074765013218, 1.1522491794721168, 1.425511320208974, 1.452182999004488]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.309576809019686</v>
+        <v>1.288880249840545</v>
       </c>
       <c r="W19" t="n">
         <v>3</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.048674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[1.0015792023001866, 1.3014210981117382, 1.5585315348563724, 1.7235732620874717, 1.949648183501746, 1.9659969115151927, 2.1787887739582286]</t>
+          <t>[1.0065184417693547, 1.2958760098901931, 1.524410142595587, 1.7281509954534462, 1.916922171421679, 1.9692408831203216, 2.1910634538869562]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2267,14 +2267,14 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[1.0015792023001866, 1.3014210981117382, 1.5585315348563724, 1.7235732620874717, 1.949648183501746, 1.9659969115151927, 2.1787887739582286]</t>
+          <t>[1.0065184417693547, 1.2958760098901931, 1.524410142595587, 1.7281509954534462, 1.916922171421679, 1.9692408831203216, 2.1910634538869562]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.957822547508469</v>
+        <v>1.943081527271</v>
       </c>
       <c r="W20" t="n">
         <v>3</v>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.048674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.5551619343441846, 0.9206749711648871, 0.9270265988284486, 1.091356026913836, 1.1937109588816617, 1.4083027712245872, 1.5101055366302052]</t>
+          <t>[0.5572617542010159, 0.9255624855016816, 0.9304480475644175, 1.0967681205799111, 1.1522491794721168, 1.4078196075291944, 1.5114517892126549]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2359,14 +2359,14 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[0.5551619343441846, 0.9206749711648871, 0.9270265988284486, 1.091356026913836, 1.1937109588816617, 1.4083027712245872, 1.5101055366302052]</t>
+          <t>[0.5572617542010159, 0.9255624855016816, 0.9304480475644175, 1.0967681205799111, 1.1522491794721168, 1.4078196075291944, 1.5114517892126549]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.301006865053124</v>
+        <v>1.280034393500656</v>
       </c>
       <c r="W21" t="n">
         <v>2</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.048674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[165, 125, 146, 127, 105, 116, 28]</t>
+          <t>[165, 125, 127, 146, 105, 116, 28]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.4353892493609467, 0.4792325955141297, 0.9270265988284486, 0.9633765679682139, 1.035457601154715, 1.1828624393241531, 1.3996932927335448]</t>
+          <t>[0.43527044161587597, 0.4796404269311558, 0.9034636903446825, 0.9304480475644175, 1.032027483842025, 1.1835711376386544, 1.3997122224932874]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[165, 125, 146, 127, 105, 116, 28]</t>
+          <t>[165, 125, 127, 146, 105, 116, 28]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[0.4353892493609467, 0.4792325955141297, 0.9270265988284486, 0.9633765679682139, 1.035457601154715, 1.1828624393241531, 1.3996932927335448]</t>
+          <t>[0.43527044161587597, 0.4796404269311558, 0.9034636903446825, 0.9304480475644175, 1.032027483842025, 1.1835711376386544, 1.3997122224932874]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.109160020239434</v>
+        <v>1.10779931074034</v>
       </c>
       <c r="W22" t="n">
         <v>4</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.048674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.4353892493609467, 0.5283817081444638, 0.9523154693433444, 1.091356026913836, 1.1187500154090464, 1.5049170606943463, 1.6079455034365908]</t>
+          <t>[0.43527044161587597, 0.5286214344194159, 0.8916994079630218, 1.0967681205799111, 1.1172569409620023, 1.5060108901063787, 1.6049634121664604]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2543,14 +2543,14 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[0.4353892493609467, 0.5283817081444638, 0.9523154693433444, 1.091356026913836, 1.1187500154090464, 1.5049170606943463, 1.6079455034365908]</t>
+          <t>[0.43527044161587597, 0.5286214344194159, 0.8916994079630218, 1.0967681205799111, 1.1172569409620023, 1.5060108901063787, 1.6049634121664604]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.311833538051696</v>
+        <v>1.311633915534191</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.048674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[12, 134, 28, 92, 116, 34, 88]</t>
+          <t>[12, 134, 92, 28, 116, 88, 34]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2625,24 +2625,24 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.6782598467668859, 1.0015792023001866, 1.1314007937194839, 1.1471118310953297, 1.2265918177176114, 1.3093025389628286, 1.3130721379264942]</t>
+          <t>[0.6479369398539214, 1.0065184417693547, 1.0863029114178249, 1.1295189922710591, 1.2249459627477546, 1.2574633640832154, 1.3159972366468766]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[12, 134, 28, 92, 116, 34, 88]</t>
+          <t>[12, 134, 92, 28, 116, 88, 34]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[0.6782598467668859, 1.0015792023001866, 1.1314007937194839, 1.1471118310953297, 1.2265918177176114, 1.3093025389628286, 1.3130721379264942]</t>
+          <t>[0.6479369398539214, 1.0065184417693547, 1.0863029114178249, 1.1295189922710591, 1.2249459627477546, 1.2574633640832154, 1.3159972366468766]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.26794717834022</v>
+        <v>1.241204663415485</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:39.049674</t>
+          <t>2025-11-16T17:30:18.085228</t>
         </is>
       </c>
     </row>
